--- a/Assets/ExcelDatas/CharacterLevelTableData.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTableData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\YH\Git\Project_Advence\Assets\ExcelDatas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C951520-D871-4D97-90E8-8504218B46B5}"/>
   <bookViews>
-    <workbookView xWindow="5745" yWindow="180" windowWidth="20595" windowHeight="13260" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterLevelTable" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>ALL;KEY</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,7 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level</t>
+    <t>Level2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +131,23 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <name val="굴림"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -204,11 +224,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:B33" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
-  <autoFilter ref="A3:B33" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Level" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="ReqExp" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:C33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C33" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Index" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="Level2" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{A3402DD1-D198-4F6D-B49C-7B881FE2BD75}" name="ReqExp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -511,280 +532,379 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE004D0-B1EE-450D-80BE-2D7EA3A77AEB}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A4" s="3">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
+      <c r="C4" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A5" s="3">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C5" s="3">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A6" s="3">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
+      <c r="C6" s="3">
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A7" s="3">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="B7" s="3">
+      <c r="C7" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A8" s="3">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="B8" s="3">
+      <c r="C8" s="3">
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A9" s="3">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
+      <c r="C9" s="3">
         <v>508</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A10" s="3">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
+      <c r="C10" s="3">
         <v>626</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A11" s="3">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="B11" s="3">
+      <c r="C11" s="3">
         <v>744</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A12" s="3">
+        <v>18</v>
+      </c>
+      <c r="B12" s="3">
         <v>9</v>
       </c>
-      <c r="B12" s="3">
+      <c r="C12" s="3">
         <v>862</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A13" s="3">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="B13" s="3">
+      <c r="C13" s="3">
         <v>980</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A14" s="3">
+        <v>20</v>
+      </c>
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="B14" s="3">
+      <c r="C14" s="3">
         <v>1098</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3">
         <v>12</v>
       </c>
-      <c r="B15" s="3">
+      <c r="C15" s="3">
         <v>1216</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A16" s="3">
+        <v>22</v>
+      </c>
+      <c r="B16" s="3">
         <v>13</v>
       </c>
-      <c r="B16" s="3">
+      <c r="C16" s="3">
         <v>1334</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A17" s="3">
+        <v>23</v>
+      </c>
+      <c r="B17" s="3">
         <v>14</v>
       </c>
-      <c r="B17" s="3">
+      <c r="C17" s="3">
         <v>1452</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A18" s="3">
+        <v>24</v>
+      </c>
+      <c r="B18" s="3">
         <v>15</v>
       </c>
-      <c r="B18" s="3">
+      <c r="C18" s="3">
         <v>1570</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A19" s="3">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3">
         <v>16</v>
       </c>
-      <c r="B19" s="3">
+      <c r="C19" s="3">
         <v>1688</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A20" s="3">
+        <v>26</v>
+      </c>
+      <c r="B20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="3">
+      <c r="C20" s="3">
         <v>1806</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A21" s="3">
+        <v>27</v>
+      </c>
+      <c r="B21" s="3">
         <v>18</v>
       </c>
-      <c r="B21" s="3">
+      <c r="C21" s="3">
         <v>1924</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A22" s="3">
+        <v>28</v>
+      </c>
+      <c r="B22" s="3">
         <v>19</v>
       </c>
-      <c r="B22" s="3">
+      <c r="C22" s="3">
         <v>2042</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A23" s="3">
+        <v>29</v>
+      </c>
+      <c r="B23" s="3">
         <v>20</v>
       </c>
-      <c r="B23" s="3">
+      <c r="C23" s="3">
         <v>2160</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A24" s="3">
+        <v>30</v>
+      </c>
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="B24" s="3">
+      <c r="C24" s="3">
         <v>2278</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A25" s="3">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3">
         <v>22</v>
       </c>
-      <c r="B25" s="3">
+      <c r="C25" s="3">
         <v>2396</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A26" s="3">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
         <v>23</v>
       </c>
-      <c r="B26" s="3">
+      <c r="C26" s="3">
         <v>2514</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A27" s="3">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
         <v>24</v>
       </c>
-      <c r="B27" s="3">
+      <c r="C27" s="3">
         <v>2632</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A28" s="3">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" s="3">
+      <c r="C28" s="3">
         <v>2750</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A29" s="3">
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
         <v>26</v>
       </c>
-      <c r="B29" s="3">
+      <c r="C29" s="3">
         <v>2868</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A30" s="3">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" s="3">
+      <c r="C30" s="3">
         <v>2986</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A31" s="3">
+        <v>37</v>
+      </c>
+      <c r="B31" s="3">
         <v>28</v>
       </c>
-      <c r="B31" s="3">
+      <c r="C31" s="3">
         <v>3104</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A32" s="3">
+        <v>38</v>
+      </c>
+      <c r="B32" s="3">
         <v>29</v>
       </c>
-      <c r="B32" s="3">
+      <c r="C32" s="3">
         <v>3222</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A33" s="3">
+        <v>39</v>
+      </c>
+      <c r="B33" s="3">
         <v>30</v>
       </c>
-      <c r="B33" s="3">
+      <c r="C33" s="3">
         <v>3340</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/CharacterLevelTableData.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTableData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C951520-D871-4D97-90E8-8504218B46B5}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D70526-8113-4C88-965F-424A89A0D62F}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
+    <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterLevelTable" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Level2</t>
+    <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Index</t>
+    <t>Level</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -223,12 +223,16 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:C33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:C33" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Index" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="Level2" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="Level" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{A3402DD1-D198-4F6D-B49C-7B881FE2BD75}" name="ReqExp" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -535,7 +539,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.6"/>
@@ -569,10 +573,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.6">
       <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>

--- a/Assets/ExcelDatas/CharacterLevelTableData.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTableData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63D70526-8113-4C88-965F-424A89A0D62F}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CD872C-FFF2-45CF-A278-F455F28C4607}"/>
   <bookViews>
     <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
@@ -228,8 +228,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:C33" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="A3:C33" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}" name="표1" displayName="표1" ref="A3:C34" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C34" xr:uid="{264CF7BA-75CC-4148-8ECB-DE6622E006D6}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5113CFC8-8417-4849-99A8-A05EF5B7B02D}" name="Index" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{58D13A8A-9FE9-46DF-8C43-E847FFD2D29C}" name="Level" dataDxfId="1"/>
@@ -536,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FE004D0-B1EE-450D-80BE-2D7EA3A77AEB}">
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.6"/>
@@ -587,7 +587,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="B5" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.6">
@@ -609,10 +609,10 @@
         <v>12</v>
       </c>
       <c r="B6" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.6">
@@ -620,10 +620,10 @@
         <v>13</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.6">
@@ -631,10 +631,10 @@
         <v>14</v>
       </c>
       <c r="B8" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>350</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.6">
@@ -642,10 +642,10 @@
         <v>15</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>508</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.6">
@@ -653,10 +653,10 @@
         <v>16</v>
       </c>
       <c r="B10" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>626</v>
+        <v>508</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.6">
@@ -664,10 +664,10 @@
         <v>17</v>
       </c>
       <c r="B11" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>744</v>
+        <v>626</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.6">
@@ -675,10 +675,10 @@
         <v>18</v>
       </c>
       <c r="B12" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>862</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.6">
@@ -686,10 +686,10 @@
         <v>19</v>
       </c>
       <c r="B13" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>980</v>
+        <v>862</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.6">
@@ -697,10 +697,10 @@
         <v>20</v>
       </c>
       <c r="B14" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>1098</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.6">
@@ -708,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B15" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>1216</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.6">
@@ -719,10 +719,10 @@
         <v>22</v>
       </c>
       <c r="B16" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
-        <v>1334</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.6">
@@ -730,10 +730,10 @@
         <v>23</v>
       </c>
       <c r="B17" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>1452</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.6">
@@ -741,10 +741,10 @@
         <v>24</v>
       </c>
       <c r="B18" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>1570</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.6">
@@ -752,10 +752,10 @@
         <v>25</v>
       </c>
       <c r="B19" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>1688</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.6">
@@ -763,10 +763,10 @@
         <v>26</v>
       </c>
       <c r="B20" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="3">
-        <v>1806</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.6">
@@ -774,10 +774,10 @@
         <v>27</v>
       </c>
       <c r="B21" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>1924</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.6">
@@ -785,10 +785,10 @@
         <v>28</v>
       </c>
       <c r="B22" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>2042</v>
+        <v>1924</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.6">
@@ -796,10 +796,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3">
-        <v>2160</v>
+        <v>2042</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.6">
@@ -807,10 +807,10 @@
         <v>30</v>
       </c>
       <c r="B24" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="3">
-        <v>2278</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.6">
@@ -818,10 +818,10 @@
         <v>31</v>
       </c>
       <c r="B25" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="3">
-        <v>2396</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.6">
@@ -829,10 +829,10 @@
         <v>32</v>
       </c>
       <c r="B26" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="3">
-        <v>2514</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.6">
@@ -840,10 +840,10 @@
         <v>33</v>
       </c>
       <c r="B27" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="3">
-        <v>2632</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.6">
@@ -851,10 +851,10 @@
         <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>2750</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.6">
@@ -862,10 +862,10 @@
         <v>35</v>
       </c>
       <c r="B29" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>2868</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.6">
@@ -873,10 +873,10 @@
         <v>36</v>
       </c>
       <c r="B30" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="3">
-        <v>2986</v>
+        <v>2868</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.6">
@@ -884,10 +884,10 @@
         <v>37</v>
       </c>
       <c r="B31" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="3">
-        <v>3104</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.6">
@@ -895,10 +895,10 @@
         <v>38</v>
       </c>
       <c r="B32" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="3">
-        <v>3222</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.6">
@@ -906,9 +906,20 @@
         <v>39</v>
       </c>
       <c r="B33" s="3">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+      <c r="A34" s="3">
+        <v>40</v>
+      </c>
+      <c r="B34" s="3">
         <v>30</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C34" s="3">
         <v>3340</v>
       </c>
     </row>

--- a/Assets/ExcelDatas/CharacterLevelTableData.xlsx
+++ b/Assets/ExcelDatas/CharacterLevelTableData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5d412eda4e43f728/문서/GitHub/Project_Advence/Assets/ExcelDatas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Advence\Project_Advence\Assets\ExcelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{59866629-BD53-4079-9CDC-DC78B3062389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{01CD872C-FFF2-45CF-A278-F455F28C4607}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA810BEF-E5E7-440B-BA83-73DEF2DCD90C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="2085" windowWidth="18645" windowHeight="10695" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{899C4664-E97E-4760-9478-F19A52BE547B}"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterLevelTable" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -539,17 +535,17 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.25" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="12.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -560,7 +556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -571,7 +567,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -582,7 +578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>10</v>
       </c>
@@ -593,7 +589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <v>11</v>
       </c>
@@ -604,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>12</v>
       </c>
@@ -615,7 +611,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <v>13</v>
       </c>
@@ -623,10 +619,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>14</v>
       </c>
@@ -634,10 +630,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <v>15</v>
       </c>
@@ -645,10 +641,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="3">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.6">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>16</v>
       </c>
@@ -656,10 +652,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.6">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>17</v>
       </c>
@@ -667,10 +663,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="3">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.6">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <v>18</v>
       </c>
@@ -678,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="3">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.6">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>19</v>
       </c>
@@ -689,10 +685,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="3">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.6">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <v>20</v>
       </c>
@@ -700,10 +696,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="3">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.6">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>21</v>
       </c>
@@ -711,10 +707,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="3">
-        <v>1098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.6">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>22</v>
       </c>
@@ -722,10 +718,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="3">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.6">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>23</v>
       </c>
@@ -733,10 +729,10 @@
         <v>13</v>
       </c>
       <c r="C17" s="3">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>24</v>
       </c>
@@ -744,10 +740,10 @@
         <v>14</v>
       </c>
       <c r="C18" s="3">
-        <v>1452</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>25</v>
       </c>
@@ -755,10 +751,10 @@
         <v>15</v>
       </c>
       <c r="C19" s="3">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <v>26</v>
       </c>
@@ -766,10 +762,10 @@
         <v>16</v>
       </c>
       <c r="C20" s="3">
-        <v>1688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <v>27</v>
       </c>
@@ -777,10 +773,10 @@
         <v>17</v>
       </c>
       <c r="C21" s="3">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <v>28</v>
       </c>
@@ -788,10 +784,10 @@
         <v>18</v>
       </c>
       <c r="C22" s="3">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <v>29</v>
       </c>
@@ -799,10 +795,10 @@
         <v>19</v>
       </c>
       <c r="C23" s="3">
-        <v>2042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>30</v>
       </c>
@@ -810,10 +806,10 @@
         <v>20</v>
       </c>
       <c r="C24" s="3">
-        <v>2160</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.6">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>31</v>
       </c>
@@ -821,10 +817,10 @@
         <v>21</v>
       </c>
       <c r="C25" s="3">
-        <v>2278</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>32</v>
       </c>
@@ -832,10 +828,10 @@
         <v>22</v>
       </c>
       <c r="C26" s="3">
-        <v>2396</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>33</v>
       </c>
@@ -843,10 +839,10 @@
         <v>23</v>
       </c>
       <c r="C27" s="3">
-        <v>2514</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <v>34</v>
       </c>
@@ -854,10 +850,10 @@
         <v>24</v>
       </c>
       <c r="C28" s="3">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <v>35</v>
       </c>
@@ -865,10 +861,10 @@
         <v>25</v>
       </c>
       <c r="C29" s="3">
-        <v>2750</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>36</v>
       </c>
@@ -876,10 +872,10 @@
         <v>26</v>
       </c>
       <c r="C30" s="3">
-        <v>2868</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>37</v>
       </c>
@@ -887,10 +883,10 @@
         <v>27</v>
       </c>
       <c r="C31" s="3">
-        <v>2986</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2840</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>38</v>
       </c>
@@ -898,10 +894,10 @@
         <v>28</v>
       </c>
       <c r="C32" s="3">
-        <v>3104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.6">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>39</v>
       </c>
@@ -909,10 +905,10 @@
         <v>29</v>
       </c>
       <c r="C33" s="3">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.6">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>40</v>
       </c>
@@ -920,7 +916,7 @@
         <v>30</v>
       </c>
       <c r="C34" s="3">
-        <v>3340</v>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
